--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>534568.890791488</v>
+        <v>466066.3834296475</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383527.6204973682</v>
+        <v>337002.2430554239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11507353.56554572</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8202683.188308738</v>
+        <v>8473099.978920728</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>97.76646051984092</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -797,16 +797,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -913,52 +913,52 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>118.5628686044508</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>8.862430619821945</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,23 +1132,23 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>126.543995116179</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>155.5825568932142</v>
       </c>
     </row>
     <row r="10">
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.9837618916414</v>
       </c>
       <c r="E11" t="n">
-        <v>243.2386572690345</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>276.1565137023554</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>276.1565137023554</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.83257296840193</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>68.25327490405893</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>26.51572092966547</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>11.75685339834053</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>72.497054795987</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>76.71587097450795</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.17142175228565</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>40.40941126622193</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>148.8293825061135</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>128.801431250095</v>
+        <v>68.19029374363589</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>199.8692462101358</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>227.2386140365967</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>347.1695723856828</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>191.9935735981709</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>68.2276977578159</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>269.027508828177</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>42.9459863602312</v>
+        <v>153.8274745711262</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -2614,7 +2614,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I27" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2757,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="X28" t="n">
-        <v>101.7177065691262</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>128.2379488316647</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>53.87467807705912</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.75100837039689</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2967,10 +2967,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>114.3028656524355</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>367.7742916466025</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3240,16 +3240,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>168.7756050755991</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>351.2391879744746</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>213.4106622846842</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>11.00429467105819</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.63926978364043</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,13 +3508,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>186.8185428348314</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>255.0299114160162</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3523,7 +3523,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>89.30725745073106</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>54.42397186352292</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3760,7 +3760,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>29.13707257386142</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>9.528180548468674</v>
       </c>
     </row>
     <row r="42">
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>357.0937460202704</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -4027,7 +4027,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>61.63425920309675</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>46.9104491589703</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>730.8505943024719</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>730.8505943024719</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.0351436353046</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>533.6469426057913</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
-        <v>533.6469426057913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>325.7954424002585</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.0351436353046</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>313.4946457291688</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="C6" t="n">
-        <v>139.0416164480418</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>955.105205389604</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="X6" t="n">
-        <v>689.4702815141908</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="Y6" t="n">
-        <v>481.7099827492369</v>
+        <v>781.6878608402728</v>
       </c>
     </row>
     <row r="7">
@@ -4758,10 +4758,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>566.8500717543842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>566.8500717543842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4919,16 +4919,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X9" t="n">
-        <v>735.0654087744522</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y9" t="n">
-        <v>735.0654087744522</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4953,7 +4953,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1104.626054809422</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="C11" t="n">
-        <v>1104.626054809422</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="D11" t="n">
-        <v>1104.626054809422</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>858.9304414063565</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>579.9844679696338</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>301.0384945329111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618842</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438683</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412868</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823541</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901062</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>1104.626054809422</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W11" t="n">
-        <v>1104.626054809422</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X11" t="n">
-        <v>1104.626054809422</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y11" t="n">
-        <v>1104.626054809422</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>504.7174150440222</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>330.2643857628952</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>181.3299761016439</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618843</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618843</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618843</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618843</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318534</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>165.799003153448</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>411.954469746149</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>641.2451212288495</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2451212288495</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121333</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.626054809422</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>1082.572950800935</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>1082.572950800935</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>880.6930508290441</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
-        <v>880.6930508290441</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>880.6930508290441</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>880.6930508290441</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>880.6930508290441</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>672.9327520640902</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>172.2091605085242</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C13" t="n">
-        <v>172.2091605085242</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618843</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618843</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618843</v>
+        <v>122.8856837436563</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618843</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492713</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160686</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754622</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>172.2091605085242</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>172.2091605085242</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>172.2091605085242</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.2091605085242</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1268.680947310029</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C14" t="n">
-        <v>1268.680947310029</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.680947310029</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
@@ -5284,7 +5284,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2630.244792055442</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2630.244792055442</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2376.483006693533</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V14" t="n">
-        <v>2045.420119349963</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W14" t="n">
-        <v>2045.420119349963</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X14" t="n">
-        <v>2045.420119349963</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="Y14" t="n">
-        <v>1655.280787374151</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5396,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.4305783960447</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C16" t="n">
-        <v>506.4943954681378</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D16" t="n">
-        <v>506.4943954681378</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E16" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5466,22 +5466,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>650.638205444305</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>650.638205444305</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>650.638205444305</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>650.638205444305</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.4305783960447</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1125.191652989356</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C17" t="n">
-        <v>1125.191652989356</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D17" t="n">
-        <v>766.9259543826058</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E17" t="n">
-        <v>381.1377017843616</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2425.125326725288</v>
       </c>
       <c r="U17" t="n">
-        <v>2388.358616186807</v>
+        <v>2171.363541363379</v>
       </c>
       <c r="V17" t="n">
-        <v>2238.025906584672</v>
+        <v>2171.363541363379</v>
       </c>
       <c r="W17" t="n">
-        <v>1885.257251314558</v>
+        <v>2171.363541363379</v>
       </c>
       <c r="X17" t="n">
-        <v>1511.791493053478</v>
+        <v>2171.363541363379</v>
       </c>
       <c r="Y17" t="n">
-        <v>1511.791493053478</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
         <v>2188.831293537797</v>
@@ -5615,7 +5615,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5697,28 +5697,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>235.5914466506042</v>
+        <v>659.249899616903</v>
       </c>
       <c r="U19" t="n">
-        <v>235.5914466506042</v>
+        <v>659.249899616903</v>
       </c>
       <c r="V19" t="n">
-        <v>235.5914466506042</v>
+        <v>659.249899616903</v>
       </c>
       <c r="W19" t="n">
-        <v>235.5914466506042</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X19" t="n">
-        <v>235.5914466506042</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y19" t="n">
-        <v>235.5914466506042</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1470.569074795015</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C20" t="n">
-        <v>1470.569074795015</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D20" t="n">
-        <v>1470.569074795015</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
-        <v>1084.780822196771</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>673.7949174071632</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>255.8311093053501</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V20" t="n">
-        <v>2247.308246834948</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W20" t="n">
-        <v>2247.308246834948</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X20" t="n">
-        <v>2247.308246834948</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y20" t="n">
-        <v>1857.168914859137</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="21">
@@ -5813,49 +5813,49 @@
         <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073963</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.8791647482714</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>625.3202087220412</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>625.3202087220412</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X22" t="n">
-        <v>625.3202087220412</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y22" t="n">
-        <v>404.5276295785111</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>976.0491016702019</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C23" t="n">
-        <v>625.3727659270879</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="D23" t="n">
-        <v>625.3727659270879</v>
+        <v>658.8617892343871</v>
       </c>
       <c r="E23" t="n">
-        <v>625.3727659270879</v>
+        <v>658.8617892343871</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>247.8758844447795</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W23" t="n">
-        <v>1739.654191907093</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X23" t="n">
-        <v>1366.188433646014</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y23" t="n">
-        <v>976.0491016702019</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6089,28 +6089,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>122.8598482424007</v>
       </c>
       <c r="D25" t="n">
         <v>53.94298182036445</v>
@@ -6183,16 +6183,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W25" t="n">
-        <v>456.3840257941342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X25" t="n">
-        <v>456.3840257941342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y25" t="n">
-        <v>235.5914466506042</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>936.2491605982761</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="C26" t="n">
-        <v>936.2491605982761</v>
+        <v>953.3782204709412</v>
       </c>
       <c r="D26" t="n">
-        <v>577.9834619915257</v>
+        <v>595.1125218641907</v>
       </c>
       <c r="E26" t="n">
-        <v>577.9834619915257</v>
+        <v>209.3242692659465</v>
       </c>
       <c r="F26" t="n">
-        <v>577.9834619915257</v>
+        <v>209.3242692659465</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.546461473041</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X26" t="n">
-        <v>936.2491605982761</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y26" t="n">
-        <v>936.2491605982761</v>
+        <v>1322.340737411353</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064343</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>625.3838260558018</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>404.5912469122717</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>808.6937513590204</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="C29" t="n">
-        <v>439.7312344186087</v>
+        <v>1370.691674966682</v>
       </c>
       <c r="D29" t="n">
-        <v>439.7312344186087</v>
+        <v>1012.425976359931</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.730224273719</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.730224273719</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.730224273719</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.730224273719</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V29" t="n">
-        <v>2311.667336930148</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W29" t="n">
-        <v>1958.898681660034</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X29" t="n">
-        <v>1585.432923398954</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y29" t="n">
-        <v>1195.293591423142</v>
+        <v>1739.654191907093</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
         <v>309.190302261463</v>
@@ -6554,31 +6554,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2654.976355290549</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C31" t="n">
-        <v>2486.040172362642</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D31" t="n">
-        <v>2486.040172362642</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="E31" t="n">
-        <v>2486.040172362642</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="F31" t="n">
-        <v>2486.040172362642</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="G31" t="n">
-        <v>2317.040372100975</v>
+        <v>169.4004218733296</v>
       </c>
       <c r="H31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>2697.149091018223</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.5099885583422</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C32" t="n">
-        <v>159.5099885583422</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D32" t="n">
-        <v>159.5099885583422</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="E32" t="n">
-        <v>159.5099885583422</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>159.5099885583422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>159.5099885583422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6700,13 +6700,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X32" t="n">
-        <v>936.2491605982757</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y32" t="n">
-        <v>546.109828622464</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6779,43 +6779,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6888,13 +6888,13 @@
         <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>513.8405610245969</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U34" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W34" t="n">
         <v>53.94298182036445</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.94416071721</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776798</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="D35" t="n">
-        <v>819.7159451700475</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E35" t="n">
-        <v>819.7159451700475</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F35" t="n">
-        <v>408.7300403804399</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2481.582765478137</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2481.582765478137</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>2481.582765478137</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>2108.117007217057</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1717.977675241246</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7104,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610023</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610023</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W37" t="n">
-        <v>149.5382038240417</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X37" t="n">
-        <v>149.5382038240417</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>65.05843098304948</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2307.009759042411</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="C38" t="n">
-        <v>1938.047242101999</v>
+        <v>1800.761432218459</v>
       </c>
       <c r="D38" t="n">
-        <v>1749.341643278937</v>
+        <v>1442.495733611708</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>1056.707481013464</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X38" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y38" t="n">
-        <v>2307.009759042411</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7298,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7341,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T40" t="n">
-        <v>579.9823256406182</v>
+        <v>637.9196332460999</v>
       </c>
       <c r="U40" t="n">
-        <v>579.9823256406182</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="V40" t="n">
-        <v>525.0086166875648</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W40" t="n">
-        <v>235.5914466506042</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X40" t="n">
-        <v>235.5914466506042</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y40" t="n">
-        <v>235.5914466506042</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1363.553390680693</v>
+        <v>1553.852279424831</v>
       </c>
       <c r="C41" t="n">
-        <v>1363.553390680693</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="D41" t="n">
-        <v>1363.553390680693</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E41" t="n">
-        <v>1363.553390680693</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V41" t="n">
-        <v>2140.292562720626</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W41" t="n">
-        <v>2140.292562720626</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X41" t="n">
-        <v>2140.292562720626</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y41" t="n">
-        <v>1750.153230744814</v>
+        <v>1553.852279424831</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7490,49 +7490,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7599,19 +7599,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V43" t="n">
-        <v>184.2708856551153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
         <v>53.94298182036445</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1210.087414675782</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="C44" t="n">
-        <v>1210.087414675782</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D44" t="n">
-        <v>1210.087414675782</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E44" t="n">
-        <v>1210.087414675782</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
         <v>381.1377017843616</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>1662.48357412947</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>1600.226746651594</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y44" t="n">
-        <v>1210.087414675782</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7748,22 +7748,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036445</v>
@@ -7830,28 +7830,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="V46" t="n">
-        <v>184.2708856551153</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>532.5980335608502</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>354.6541654994895</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>111.7499598249992</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938572</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>145.0294169142006</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>138.0053911458572</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>74.94203846847482</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22676,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22685,16 +22685,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22801,13 +22801,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22865,19 +22865,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>28.88219696018795</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>91.29540353282118</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22998,13 +22998,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23035,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23159,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>79.22899008729846</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>50.1001388840902</v>
       </c>
     </row>
     <row r="10">
@@ -23193,10 +23193,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>78.69927972904151</v>
       </c>
       <c r="E11" t="n">
-        <v>138.6917128032273</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>130.719532039356</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>61.87643319194541</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>73.64827093197763</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,31 +23418,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>99.05652735499199</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>88.89425643449839</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310646</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4537986637794</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>222.9160118599466</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>227.6757534850358</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>225.6219223941625</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>162.658859410631</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>297.2340458824821</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,19 +23664,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23706,7 +23706,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>148.3192344835763</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>166.4132315998091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>176.0389090914359</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>178.9228759640214</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,19 +23901,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.23367420798925</v>
+        <v>156.8448117144484</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>124.0535265542214</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>158.9993246194569</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24183,19 +24183,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>150.356955594279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>18.10331938532471</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>221.7905964226241</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>80.38777526039645</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24423,16 +24423,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>17.49548950841404</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>370.8381836605638</v>
+        <v>259.9566954496688</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>232.0474423175574</v>
       </c>
       <c r="X28" t="n">
-        <v>123.991948819911</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>253.6924212405971</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.6037244977525944</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.0809718115404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>41.86802318935965</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>14.15607842565925</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>219.4114360937592</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>83.36203824822886</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>62.54498204632034</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>37.81350522360515</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>137.6111783471542</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,25 +25362,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>123.9453835684544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>167.8644987858516</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>151.8461343256953</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25596,22 +25596,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>135.7278480073532</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>197.7136714603051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>298.6151858962735</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>376.7097581075849</v>
       </c>
     </row>
     <row r="42">
@@ -25839,22 +25839,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>89.56002855569147</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>25.6400956432102</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>308.0968414753723</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26070,22 +26070,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>165.2350897910486</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482104.1301211516</v>
+        <v>482104.1301211515</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482104.1301211516</v>
+        <v>482104.1301211515</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>511961.5724287874</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816143.6851837528</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.6851837528</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816143.6851837526</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="16">
@@ -26322,25 +26322,25 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>141745.4664845208</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="H2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="J2" t="n">
         <v>231322.0880126061</v>
       </c>
-      <c r="J2" t="n">
-        <v>231322.0880126062</v>
-      </c>
       <c r="K2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126062</v>
@@ -26355,7 +26355,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923561</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
-        <v>384978.0241011367</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213663</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
-        <v>97512.97242237817</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
-        <v>33777.16046143055</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
         <v>35944.74664026682</v>
@@ -26450,7 +26450,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="N4" t="n">
         <v>35944.74664026682</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678014</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26493,19 +26493,19 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="N5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="N5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29772.0090545012</v>
+        <v>-41990.01967454166</v>
       </c>
       <c r="C6" t="n">
-        <v>50997.42247704656</v>
+        <v>38779.41185700607</v>
       </c>
       <c r="D6" t="n">
-        <v>50997.42247704656</v>
+        <v>38779.4118570061</v>
       </c>
       <c r="E6" t="n">
-        <v>51785.64537707446</v>
+        <v>-292768.7244798854</v>
       </c>
       <c r="F6" t="n">
-        <v>-238832.1607922068</v>
+        <v>140077.4495631106</v>
       </c>
       <c r="G6" t="n">
-        <v>146145.8633089298</v>
+        <v>140077.4495631107</v>
       </c>
       <c r="H6" t="n">
-        <v>146145.8633089298</v>
+        <v>140077.4495631106</v>
       </c>
       <c r="I6" t="n">
-        <v>146145.8633089298</v>
+        <v>140077.4495631107</v>
       </c>
       <c r="J6" t="n">
-        <v>83085.92070982361</v>
+        <v>77017.50696400437</v>
       </c>
       <c r="K6" t="n">
-        <v>146145.8633089299</v>
+        <v>140077.4495631106</v>
       </c>
       <c r="L6" t="n">
-        <v>146145.8633089299</v>
+        <v>140077.4495631107</v>
       </c>
       <c r="M6" t="n">
-        <v>137388.2803137162</v>
+        <v>32104.08888905263</v>
       </c>
       <c r="N6" t="n">
-        <v>48632.89088655169</v>
+        <v>140077.4495631106</v>
       </c>
       <c r="O6" t="n">
-        <v>146145.8633089298</v>
+        <v>140077.4495631106</v>
       </c>
       <c r="P6" t="n">
-        <v>146145.8633089299</v>
+        <v>140077.4495631106</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26813,19 +26813,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>342.7224034979613</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469637</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
-        <v>398.1307590522001</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469648</v>
+        <v>433.2729838768963</v>
       </c>
       <c r="N4" t="n">
-        <v>398.1307590521999</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
-        <v>398.1307590522001</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.140788987815579</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>1.441855221466299</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760113</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461251</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884597</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>22.217558194707</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>24.7213143567723</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840331</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081215</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411504</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796961</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587037</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847509</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626972</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>0.727517133052018</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727676</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779982</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335883</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358772</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192328</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833406</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689047</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650261</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164365</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263565</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504675</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497748</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623698</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>1.89918574522732</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174383</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170838</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894673</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948808</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>9.66414560139404</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179675</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938405</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.28821036858792</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>2.83959271339006</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025626</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457194</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -34783,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>121.9644487350302</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503281</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424808</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315784</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>248.6418854471727</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>231.6067186693945</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891755</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821095</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721081</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062263</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421935</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831893</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047518</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35740,7 +35740,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35977,7 +35977,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36217,10 +36217,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
         <v>485.8144648060965</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37089,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37876,7 +37876,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38019,7 +38019,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466066.3834296475</v>
+        <v>526901.8583413473</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -706,16 +706,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.862430619821945</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>116.7889580726305</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>90.38893773807641</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>155.5825568932142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1305,49 +1305,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.9837618916414</v>
+        <v>254.850829403482</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>68.25327490405893</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>89.06613335611806</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>345.250156728397</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>72.497054795987</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>86.85904583823182</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>76.71587097450795</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>40.40941126622193</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>82.03876242751123</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G18" t="n">
         <v>136.5310119231965</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>68.19029374363589</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>149.8794763036717</v>
       </c>
     </row>
     <row r="20">
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>316.3210557162041</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.2386140365967</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>101.6257152931843</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>191.9935735981709</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>111.9240296277376</v>
       </c>
     </row>
     <row r="24">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>68.2276977578159</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>361.512492823768</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>153.8274745711262</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>127.7594927339634</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>134.5039760698515</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>128.2379488316647</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>114.3028656524355</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>49.09195953061352</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>367.7742916466025</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>97.11417379820813</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>76.00115178856009</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>213.4106622846842</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>11.00429467105819</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>255.0299114160162</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>223.6380991848686</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I39" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>89.30725745073106</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.528180548468674</v>
+        <v>4.02012364305544</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>9.764863467406604</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>357.0937460202704</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>188.9149350248649</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>46.9104491589703</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>129.7411677825657</v>
       </c>
     </row>
   </sheetData>
@@ -4354,13 +4354,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
         <v>749.627473042513</v>
@@ -4418,16 +4418,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,16 +4439,16 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>125.0774898247174</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X3" t="n">
         <v>19.28114311021272</v>
@@ -4518,13 +4518,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4612,7 +4612,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>613.4725238202047</v>
+        <v>638.2370107872948</v>
       </c>
       <c r="C6" t="n">
-        <v>613.4725238202047</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D6" t="n">
-        <v>464.5381141589534</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4658,40 +4658,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>955.105205389604</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>781.6878608402728</v>
+        <v>846.0885109928277</v>
       </c>
       <c r="T6" t="n">
-        <v>781.6878608402728</v>
+        <v>846.0885109928277</v>
       </c>
       <c r="U6" t="n">
-        <v>781.6878608402728</v>
+        <v>846.0885109928277</v>
       </c>
       <c r="V6" t="n">
-        <v>781.6878608402728</v>
+        <v>846.0885109928277</v>
       </c>
       <c r="W6" t="n">
-        <v>781.6878608402728</v>
+        <v>846.0885109928277</v>
       </c>
       <c r="X6" t="n">
-        <v>781.6878608402728</v>
+        <v>638.2370107872948</v>
       </c>
       <c r="Y6" t="n">
-        <v>781.6878608402728</v>
+        <v>638.2370107872948</v>
       </c>
     </row>
     <row r="7">
@@ -4758,10 +4758,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>274.7999090013961</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>384.2867411876791</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>176.4352409821462</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -4995,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1547.452423968253</v>
+        <v>1526.106027515567</v>
       </c>
       <c r="C11" t="n">
-        <v>1547.452423968253</v>
+        <v>1526.106027515567</v>
       </c>
       <c r="D11" t="n">
         <v>1268.68094731003</v>
@@ -5032,61 +5032,61 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V11" t="n">
-        <v>2311.057514205145</v>
+        <v>1916.245359491379</v>
       </c>
       <c r="W11" t="n">
-        <v>2311.057514205145</v>
+        <v>1916.245359491379</v>
       </c>
       <c r="X11" t="n">
-        <v>1937.591755944065</v>
+        <v>1916.245359491379</v>
       </c>
       <c r="Y11" t="n">
-        <v>1547.452423968253</v>
+        <v>1526.106027515567</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>438.7118141694736</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C13" t="n">
-        <v>269.7756312415667</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D13" t="n">
-        <v>269.7756312415667</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>269.7756312415667</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>122.8856837436563</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="X13" t="n">
-        <v>438.7118141694736</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y13" t="n">
-        <v>438.7118141694736</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1241.158393318536</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C14" t="n">
-        <v>1241.158393318536</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D14" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U14" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V14" t="n">
-        <v>2057.295728843236</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W14" t="n">
-        <v>1704.527073573122</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="X14" t="n">
-        <v>1631.297725294347</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="Y14" t="n">
-        <v>1241.158393318536</v>
+        <v>2112.324418312744</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M15" t="n">
         <v>1313.210296315296</v>
@@ -5372,28 +5372,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5402,7 +5402,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>201.8560754027576</v>
+        <v>291.7960311703081</v>
       </c>
       <c r="C16" t="n">
-        <v>201.8560754027576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D16" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T16" t="n">
-        <v>650.638205444305</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U16" t="n">
-        <v>650.638205444305</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V16" t="n">
-        <v>650.638205444305</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="W16" t="n">
-        <v>650.638205444305</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="X16" t="n">
-        <v>422.6486545462877</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.8560754027576</v>
+        <v>473.4444960005478</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1394.624369323446</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C17" t="n">
-        <v>1394.624369323446</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D17" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5545,22 +5545,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2425.125326725288</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2171.363541363379</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2171.363541363379</v>
+        <v>1910.679024677574</v>
       </c>
       <c r="W17" t="n">
-        <v>2171.363541363379</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="X17" t="n">
-        <v>2171.363541363379</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y17" t="n">
-        <v>1781.224209387568</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961344</v>
@@ -5597,40 +5597,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C19" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D19" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E19" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>659.249899616903</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>659.249899616903</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>659.249899616903</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X19" t="n">
-        <v>369.8327295799424</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y19" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>882.8926947117852</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="C20" t="n">
-        <v>882.8926947117852</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V20" t="n">
-        <v>1838.661061815299</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W20" t="n">
-        <v>1485.892406545185</v>
+        <v>1561.602023262251</v>
       </c>
       <c r="X20" t="n">
-        <v>1112.426648284105</v>
+        <v>1188.136265001171</v>
       </c>
       <c r="Y20" t="n">
-        <v>882.8926947117852</v>
+        <v>797.9969330253591</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424006</v>
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5858,16 +5858,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>149.5382038240415</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C22" t="n">
-        <v>149.5382038240415</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D22" t="n">
-        <v>149.5382038240415</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>438.9553738610022</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W22" t="n">
-        <v>149.5382038240415</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="X22" t="n">
-        <v>149.5382038240415</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y22" t="n">
-        <v>149.5382038240415</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1386.090004781549</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="C23" t="n">
-        <v>1017.127487841138</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D23" t="n">
-        <v>658.8617892343871</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E23" t="n">
-        <v>658.8617892343871</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>247.8758844447795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>1759.555763042629</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X23" t="n">
-        <v>1386.090004781549</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y23" t="n">
-        <v>1386.090004781549</v>
+        <v>823.1945852167225</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6089,22 +6089,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>291.7960311703076</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C25" t="n">
-        <v>122.8598482424007</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005474</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W25" t="n">
-        <v>473.4444960005474</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X25" t="n">
-        <v>473.4444960005474</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y25" t="n">
-        <v>473.4444960005474</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1322.340737411353</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C26" t="n">
-        <v>953.3782204709412</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D26" t="n">
-        <v>595.1125218641907</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E26" t="n">
-        <v>209.3242692659465</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>209.3242692659465</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6229,16 +6229,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6253,25 +6253,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2048.575150942547</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W26" t="n">
-        <v>1695.806495672433</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X26" t="n">
-        <v>1322.340737411353</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y26" t="n">
-        <v>1322.340737411353</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="27">
@@ -6287,16 +6287,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6329,7 +6329,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073963</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>182.9929744809335</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S28" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T28" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U28" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V28" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9927747426011</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1739.654191907093</v>
+        <v>1404.543549400789</v>
       </c>
       <c r="C29" t="n">
-        <v>1370.691674966682</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>1012.425976359931</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
         <v>882.8926947117852</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V29" t="n">
-        <v>2092.422847177208</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W29" t="n">
-        <v>1739.654191907093</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X29" t="n">
-        <v>1739.654191907093</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y29" t="n">
-        <v>1739.654191907093</v>
+        <v>1404.543549400789</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6542,16 +6542,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6566,19 +6566,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>507.3364050629041</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C31" t="n">
-        <v>338.4002221349972</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D31" t="n">
-        <v>338.4002221349972</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E31" t="n">
-        <v>338.4002221349972</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>169.4004218733296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6645,28 +6645,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629041</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1194.683768698139</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C32" t="n">
-        <v>1194.683768698139</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D32" t="n">
-        <v>836.4180700913887</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6700,7 +6700,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
@@ -6730,22 +6730,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2544.02527650002</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2290.263491138112</v>
       </c>
       <c r="V32" t="n">
-        <v>2311.057514205145</v>
+        <v>1959.200603794541</v>
       </c>
       <c r="W32" t="n">
-        <v>1958.288858935031</v>
+        <v>1959.200603794541</v>
       </c>
       <c r="X32" t="n">
-        <v>1584.823100673951</v>
+        <v>1585.734845533462</v>
       </c>
       <c r="Y32" t="n">
-        <v>1194.683768698139</v>
+        <v>1585.734845533462</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6791,31 +6791,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1331.377835177124</v>
+        <v>1317.927233509</v>
       </c>
       <c r="C35" t="n">
-        <v>1331.377835177124</v>
+        <v>1317.927233509</v>
       </c>
       <c r="D35" t="n">
-        <v>1331.377835177124</v>
+        <v>959.66153490225</v>
       </c>
       <c r="E35" t="n">
-        <v>945.5895825788796</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2481.582765478137</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V35" t="n">
-        <v>2481.582765478137</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W35" t="n">
-        <v>2481.582765478137</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X35" t="n">
-        <v>2108.117007217057</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y35" t="n">
-        <v>1717.977675241246</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.05843098304948</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C37" t="n">
-        <v>65.05843098304948</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>513.8405610245969</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W37" t="n">
-        <v>513.8405610245969</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X37" t="n">
-        <v>285.8510101265796</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.05843098304948</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2169.72394915887</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="C38" t="n">
-        <v>1800.761432218459</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D38" t="n">
-        <v>1442.495733611708</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E38" t="n">
-        <v>1056.707481013464</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.72394915887</v>
+        <v>2471.252021134516</v>
       </c>
       <c r="V38" t="n">
-        <v>2169.72394915887</v>
+        <v>2140.189133790946</v>
       </c>
       <c r="W38" t="n">
-        <v>2169.72394915887</v>
+        <v>2140.189133790946</v>
       </c>
       <c r="X38" t="n">
-        <v>2169.72394915887</v>
+        <v>1766.723375529866</v>
       </c>
       <c r="Y38" t="n">
-        <v>2169.72394915887</v>
+        <v>1766.723375529866</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7341,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>637.9196332460999</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X40" t="n">
-        <v>348.7460229006679</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y40" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1553.852279424831</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C41" t="n">
-        <v>1184.889762484419</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D41" t="n">
-        <v>1184.889762484419</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E41" t="n">
-        <v>799.1015098861748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F41" t="n">
-        <v>799.1015098861748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G41" t="n">
         <v>381.1377017843616</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V41" t="n">
-        <v>1916.245359491378</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W41" t="n">
-        <v>1563.476704221264</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X41" t="n">
-        <v>1563.476704221264</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y41" t="n">
-        <v>1553.852279424831</v>
+        <v>1108.365917331524</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7490,43 +7490,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="D43" t="n">
         <v>53.94298182036445</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>245.45494510253</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1125.191652989356</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="C44" t="n">
-        <v>1125.191652989356</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D44" t="n">
-        <v>766.9259543826058</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E44" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
         <v>381.1377017843616</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W44" t="n">
-        <v>1485.892406545185</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X44" t="n">
-        <v>1485.892406545185</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y44" t="n">
-        <v>1485.892406545185</v>
+        <v>1526.329725433337</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>350.9495687306105</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C46" t="n">
-        <v>350.9495687306105</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D46" t="n">
         <v>200.8329293182748</v>
@@ -7830,28 +7830,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>532.5980335608502</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>532.5980335608502</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>532.5980335608502</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V46" t="n">
-        <v>532.5980335608502</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W46" t="n">
-        <v>532.5980335608502</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X46" t="n">
-        <v>532.5980335608502</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y46" t="n">
-        <v>532.5980335608502</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747161</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22679,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22758,7 +22758,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22798,7 +22798,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>91.29540353282118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>54.89421303120734</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22928,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22998,13 +22998,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>160.9567151697601</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23120,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>50.1001388840902</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23193,7 +23193,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>78.69927972904151</v>
+        <v>99.83221221720098</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.05652735499199</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>136.6435220329191</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>37.48368493508355</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>297.2340458824821</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>80.38777526039601</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>148.3192344835763</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>176.0389090914359</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>245.7134960426237</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>156.8448117144484</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>68.70517704842311</v>
       </c>
     </row>
     <row r="20">
@@ -23974,16 +23974,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>32.9199130012089</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>158.9993246194569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>72.6705324754106</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>184.8972830434067</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>221.7905964226241</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>274.3139090283159</v>
       </c>
     </row>
     <row r="24">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>80.38777526039645</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,10 +24420,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>226.5550366661091</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3.760398947239594</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>259.9566954496688</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>28.41139610783178</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>232.0474423175574</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,13 +24682,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>230.7689157011561</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>253.6924212405971</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>41.86802318935965</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24885,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>176.6176958584236</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>14.15607842565925</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24970,22 +24970,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>119.3341465594497</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>305.9292182837017</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,19 +25210,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>37.81350522360515</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>137.6111783471542</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>38.2851774626476</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>151.8461343256953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>27.58606832342073</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,22 +25602,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>135.7278480073532</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>376.7097581075849</v>
+        <v>382.2178150129981</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>138.8506095508058</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,19 +25839,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25.6400956432102</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>197.3230036311887</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>165.2350897910486</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>88.84348556952912</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837528</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.6851837528</v>
       </c>
     </row>
     <row r="16">
@@ -26325,10 +26325,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
+        <v>231322.088012606</v>
+      </c>
+      <c r="G2" t="n">
         <v>231322.0880126061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>231322.0880126062</v>
       </c>
       <c r="H2" t="n">
         <v>231322.0880126061</v>
@@ -26337,22 +26337,22 @@
         <v>231322.0880126062</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.088012606</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.088012606</v>
       </c>
       <c r="P2" t="n">
         <v>231322.0880126061</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>432846.1740429963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26450,7 +26450,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
         <v>35944.74664026682</v>
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26505,7 +26505,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41990.01967454166</v>
+        <v>-30993.81011650525</v>
       </c>
       <c r="C6" t="n">
-        <v>38779.41185700607</v>
+        <v>49775.62141504249</v>
       </c>
       <c r="D6" t="n">
-        <v>38779.4118570061</v>
+        <v>49775.62141504251</v>
       </c>
       <c r="E6" t="n">
-        <v>-292768.7244798854</v>
+        <v>-287307.1521086484</v>
       </c>
       <c r="F6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343478</v>
       </c>
       <c r="G6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="H6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="I6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.021934348</v>
       </c>
       <c r="J6" t="n">
-        <v>77017.50696400437</v>
+        <v>82479.07933524172</v>
       </c>
       <c r="K6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="L6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.0219343478</v>
       </c>
       <c r="M6" t="n">
-        <v>32104.08888905263</v>
+        <v>37565.66126028971</v>
       </c>
       <c r="N6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="O6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343478</v>
       </c>
       <c r="P6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170866</v>
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26822,10 +26822,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768968</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768963</v>
+        <v>433.2729838768968</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768968</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31931,28 +31931,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32168,28 +32168,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34786,10 +34786,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M13" t="n">
         <v>146.3614835535656</v>
@@ -35582,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O15" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M16" t="n">
         <v>146.3614835535656</v>
@@ -35819,10 +35819,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37083,13 +37083,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38028,13 +38028,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38110,7 +38110,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
